--- a/data/hotels_by_city/Dallas/Dallas_shard_357.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_357.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>L R</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Check-in was incredibly slow. Later discovered the door to the room didn't lock from the outside. Reported the issue to the hotel manger. Three hours later the problem was still not resolved and the manager and maintenance had left for the day. Night manager moved us from our double queen for 3 people to a handicap king and pull out sofa. What a terrible inconvenience to repack/unpack everything again after a long day of travel! Also, couldn't call the elevator on the floor so had to use stairs to move all our things. To top it off, the shower head was broken in the new unit. Reported that issue to manager at 7:30am today. It's 8:30pm and issue still has not been resolved. Guess I'll have to take a shower on my knees again tonight. Staff was rude and incredibly unresponsive. Will NEVER stay here again!More</t>
   </si>
   <si>
+    <t>Greg G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r484645122-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Great motel just south of Dallas Texas. A newer property pet friendly and close to all Dallas attractions. Nice clean quiet room, The staff was very attentive and friendly, a nice alternative to staying in crowded Dallas. A short 15 drive to downtown Dallas.More</t>
   </si>
   <si>
+    <t>jsmcgold</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r474116090-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>I am a frequent traveler and this was the worst experience I have ever had with any hotel chain. Mark, the general manager should not be a manager in the hospitality industry. I have never been treated so poorly and satisfaction is not a guarantee by far.The fire alarm went off at 2:30 in the morning and was still going off at 10:30 am when I checked out. The general manager offered nothing and was rude! Worst experience ever!!!More</t>
   </si>
   <si>
+    <t>Smartie752</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r449536602-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>Very nice hotel.  Excellent housekeepers, great breakfast, nice furnishings.  Very impressed.  They want me to say more, so I'll add that our heating/ac stopped working just before we checked out.  Reported to manager who jumped right on it.  Can't ask for more than that!  :)More</t>
   </si>
   <si>
+    <t>bubears-sicem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r425988404-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -303,6 +318,9 @@
     <t>Entered room and it smelled like smoke.  Front desk says that rooms are all non-smoking and never have been.  The placards on the walls have no smoking signs and they also have many where there is not a non smoking sign.  Staying for free on points otherwise would check out of hotel More</t>
   </si>
   <si>
+    <t>tmmlump1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r328690901-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>Stayed one night at this hotel. Clean room, nice bed and breakfast. We would stay here again. No problems. We need notice something different we liked. The room had a king and  a queen bed. Like that better than 2 queens. Friendly staff and good location. More</t>
   </si>
   <si>
+    <t>MrsRicks76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r327174201-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>My family and I stayed at this hotel November 14 for 1 night. We checked in late, after 9 pm. I wished we could have gotten a suite, but only a king room or 2 double beds were given as optiokkns. We chose the king room. The room and bathroom were clean. The bed was comfy. The chair and the footrest were both worn and stained. The carpet had some stains as well. The room number was 105, and it could use some updating, which is the only reason I didn't rate this stay 5 stars. The breakfast was great and fresh with a nice variety. The attendant was friendly and helpful. For future travelers, please don't forget to tip the staff at breakfast, as they deal with a lot and are seldom given gratuity/monetary tips.More</t>
   </si>
   <si>
+    <t>ABog37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r320890432-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -378,6 +402,9 @@
     <t>The nasty "cleanser" chemical smell that overwhelms you when you are anywhere in the building is a problem. We had a horrible fetid smell in our room, opening a window may have helped a bit but room windows don't open.  We were staying there for about 4 days for a wedding and they could not accommodate us. I would never stay here again.Awful and lazy management.More</t>
   </si>
   <si>
+    <t>jeff_grizzle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r308467303-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>The stay at  Holiday Inn express in Cedar Hill Texas was most pleasant. The staff was helpful and polite. The hotel was located near where  we needed to be and that made it very convenient. Would stay there again should occasion arise.More</t>
   </si>
   <si>
+    <t>Jacqueline T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r299677854-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>We stayed here for 4 nights for my SIL's wedding and it was a great location near stores and an outside shopping mall.  It was an added treat as for the month of August they had free pancakes for guest from 8PM-12AM.  We stayed in room 206 with double beds as we had our 2 year old with us.  It overlooked the front entrance area.  The hotel was at full capacity and we had other family members staying there as well.  They overbooked and when my BIN checked in they upgraded him to a king suite which was better than room he was supposed to get.  We are just thankful that he didn't have to stay at a different hotel.  Other than that little hiccup everything was as expected.  The staff were friendly.  They also had an indoor pool which would have been nice to dip into with our son but we were busy with wedding errands the entire stay.More</t>
   </si>
   <si>
+    <t>sumonesvaca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r254765725-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>Moved to this Holiday Inn from another one.  Stayed 2 nights.  In town for a funeral of a long time friend, so sad occasion.  Staff was friendly and kind. Check in was easy.  The room was clean and spacious.  I used the gym while I was there, the stationary bike seemed dated and inaccurate.  The breakfast was good and the area very clean.    Had a difficult finding the place and went to the wrong one, because the actual address of this hotel is Antoine St. not N. Hwy 67 although N. Hiwy 67 runs in front of it.  I would def. stay here again if the opportunity arose and highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>LisaB1970</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r254297699-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -471,6 +507,9 @@
     <t>2 night stay for cycling event at Cedar Hill State Park. Very close to the event, easy access to restraunts &amp; shopping. Facility was clean, seemed relatively new, and our King Suit was spacious for our family of 3 plus small puppy. Free Breakfast was actually good &amp; had healthy options.  You'll be pleased.More</t>
   </si>
   <si>
+    <t>Tomanytowns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r237642004-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>This Holiday seems to have things together. Clean rooms and amenities (shampoo etc.) stocked. Better access to restaurants. Nothing more to say other than the snack area was full of choices and nutty buddy ice cream cones if I wanted one. And USA today was available. Hopefully this is now 200 characters. More</t>
   </si>
   <si>
+    <t>Crystal H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r223299250-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>Everything was great at this hotel. The ladies and gentlemen at the front desk were friendly, the breakfast was hot and fresh. The breakfast host Lorena (I believe) made some awesome cookies. The housekeepers were all friendly and did a great job keeping the rooms clean. Thanks Holiday Inn Express for a great stay! I will defiantly be back soon.More</t>
   </si>
   <si>
+    <t>Kathy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r219456786-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -552,6 +597,9 @@
     <t>I love this hotel. The room was very nice and spacious and clean. The staff was very friendly and answered any questions I had about the area, mostly about food. I also liked the free Wi-Fi and the fact that they had a little food store with minor food ideas, drinks, and treats. None of the ice machines seemed to be working, but there was a fridge in the room so that was fine. I also loved how they had two different kinds of pillows, two soft and two firm.The only thing that bothered me was that they didn't have a shuttle service available for guests considering there was a strip/outdoor mall less than 10 minutes from the hotel, let alone plenty of other shops and restaurants in the area that would've been nice to see, (reason for the 4 out of 5).The number one thing I loved about this hotel was the help I received the day I checkout. My taxi took over 2 hours and never came to pick me up, even after I called them a second time. The woman at the front desk, Priscilla(?), was such a great help letting me use her phone to try and call for another taxi, (which still didn't come). She then called her guy and he came within 5-10 minutes to pick me up. So thank you Priscilla for all your help!More</t>
   </si>
   <si>
+    <t>Tess T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r200535126-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -573,6 +621,9 @@
     <t>We often travel with our puppy and chose to stay at this HIE because of their very reasonable one time pet fee.  We were pleasantly surprised at how nice, clean and well maintained the rooms are.  We booked a King Leisure which was spacious.  The staff were super friendly and accommodating.  It is close to a lot of restaurants and good shopping.  We will surely stay here again.More</t>
   </si>
   <si>
+    <t>GadgetMedic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r194643696-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -594,6 +645,9 @@
     <t>Holiday Inn Express are usually very similar and predictable, that's why I stay in them.  I will say that the staff at this location were exceptionally friendly from check in to breakfast and check out.  The quality of the breakfast was good, normal HIE choices, but clean and well presented.Overall impression: A convenient, friendly comfy place to stay in Cedar Hill.More</t>
   </si>
   <si>
+    <t>rimrock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r186689638-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -621,6 +675,9 @@
     <t>We have stayed here 5 or 6 times over the course of two years. It's always overrun with sports teams in the summer, and  the children are always running up and down the halls at all hours of the day and night with no supervision at all. And yes, they are are always screaming. And also the elevators are incredibly sloooooow. I won't be staying here again, I've given it enough chances.More</t>
   </si>
   <si>
+    <t>Heather B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r165125512-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -642,6 +699,9 @@
     <t>We came to Cedar Hills for a Bible Quiz competition and lots of the other quiz families were also staying at this hotel so it was very crowded.  They did an excellent job of keeping the breakfast buffet stocked for all of the hungry kiddos.  Since we were driving, we got into the hotel very late at night and had the pleasure of meeting Chad, the night front desk person.  He was fabulous!  We were all tired and a little grumpy after 18 hours of being in the car, but he was super friendly and made the check in process great!  If we are ever in Texas again, we will definitely be back to this hotel!More</t>
   </si>
   <si>
+    <t>franklinmilford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r158845106-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -669,6 +729,9 @@
     <t>After reading other reviews, I was optimistic about my 5 night stay, perhaps overly so. I arrived early and was not allowed check in because of sold out situation for a wedding, okay. When I returned for check in, the same surly clerk checked me in, no notice of Priority Club member ship, no name tag or uniform, still very minor issues. The clerk was extremely busy with a full house and wedding party going on in lobby,(waiting for limos,etc.), so she was working very hard, perhaps 2 clerks for this time of day. The lobby area is well done, modern and clean lines. The beakfast area is one of the nicer ones I have seen in this chain. There is a small "Sweet Spot" convenience store area off the front desk, soda, ice cream,candy, the name well deserved! The room was spotless, as well as all common areas. Cleanliness IS a priority here, and that is something others don't do well. The room was nicely appointed, the bed comfortable, the towels large and fluffy, flat screen TV and ammenities by Bath and Body Works, perks that work! The breakfast area is huge, everal sitting areas, a communalr tall stool bar area, beautiful! The usual HIE fare was available, cinnamon rolls, bacon, eggs, and a pancake machine that was even advertised in the elevator, but it was out of order during my stay, something that did not effect me at...After reading other reviews, I was optimistic about my 5 night stay, perhaps overly so. I arrived early and was not allowed check in because of sold out situation for a wedding, okay. When I returned for check in, the same surly clerk checked me in, no notice of Priority Club member ship, no name tag or uniform, still very minor issues. The clerk was extremely busy with a full house and wedding party going on in lobby,(waiting for limos,etc.), so she was working very hard, perhaps 2 clerks for this time of day. The lobby area is well done, modern and clean lines. The beakfast area is one of the nicer ones I have seen in this chain. There is a small "Sweet Spot" convenience store area off the front desk, soda, ice cream,candy, the name well deserved! The room was spotless, as well as all common areas. Cleanliness IS a priority here, and that is something others don't do well. The room was nicely appointed, the bed comfortable, the towels large and fluffy, flat screen TV and ammenities by Bath and Body Works, perks that work! The breakfast area is huge, everal sitting areas, a communalr tall stool bar area, beautiful! The usual HIE fare was available, cinnamon rolls, bacon, eggs, and a pancake machine that was even advertised in the elevator, but it was out of order during my stay, something that did not effect me at all. One of the better breakfast offerings at this price point. There is a beautiful indoor swimming pool and whirlpool area, but I didnt try this area. Unfortunately the downside.... upon checking into room I noticed the lack of hangers, so I called housekeeping and front desk for them, was told they were on the way twice, I was still waiting five days later. As noticed by other reviewers, the walls are paper thin, and I had an adjoining room which made it possible for me to listen to my neighbors phone calls without trying, and they were using normal speaking tones, not loud. When I went downstairs to purchase a drink, the same check in desk clerk was watching private laptop shows and was behind the desk barefoot, not really 5 star! One night when I returned to the room I had lost my key. The desk clerk (I hadnt seen before), made me a new one without asking for ID, a major security issue that management needs to address immediately. There is a very loud air conditioner outside the -02 rooms, and I was on the thrid floor and the noise from this overtook my AC unit and TV. At one time I went to the window and looked for a helicopter pad, as this noise was intermittent all night and day. The desk clrek said this was becauseof the smoking rooms, but there was not vent in my room, and this unit could have been placed further from the window. The manager, Mark West was at the front desk for check out, and asked if there were problems during my stay. I mentioned the above items, and I honestly believed he was concerned and was not aware of these issues. He promised they would be taken care of, and since I will be returning to this area, we shall see. I will definitely stay at this property again, as the kinks I experienced do lean toward new management, and Mark seems to care about his property. Hopefully next review will garner at least one more star. If you overlook the minor, your stay here will be comfortable, your tummy will be full, and you will come back also!More</t>
   </si>
   <si>
+    <t>mama1013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r143976536-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -706,6 +769,9 @@
   </si>
   <si>
     <t>We spent 2 nights here while in town for a funeral.We were automatically upgraded to a king suite (Platinum member) without even asking.  Check-in and check-out was handled quickly and professionally.The room was large and everything was very clean and TV, fridge, microwave all worked well.  The temperature was controlled by wall thermostat and was well maintained.  I thought that noise might be an issue since the room was very close to the entry, across from the breakfast/break area, and close to the elevator - but we heard nothing! The bed was the standard HI Express king which is always very comfortable.This hotel had a large selection of snacks and microwave meals avail at the desk. The breakfast food was the standard HI preakfast and was kept well stocked - even has sugar-free pancake syrup which not all sites have.The location was good and we did not have any concerns for safetyMore</t>
+  </si>
+  <si>
+    <t>cliphord</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r128318038-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
@@ -740,6 +806,9 @@
 The issues continued when I cut my hand on the stairwell railing. No big deal, but the bed sheets are white and I didn't want to bleed all over the room while I slept, so I asked the front desk for a bandage... they didn't have any. Are you telling me you...I stayed here for 5 nights on a business trip. I found the room and ammenities to be in excellent order. The room was spotless. This establishment must be fairly new. The location is great if you're looking for access to the immediate area and Dallas. There are several chain restaurants (Buffalo Wild Wings, Panera Bread, fast food) almost within walking distance if it weren't for a busy highway separating the hotel from the shopping center. A Super Target, Best Buy, and very nice outdoor mall are 5 minutes away. Staying on business, I made use of the Target. The service was very good... during the week. When the "weekend" staff came on Friday, the service was noticeably worse. The front desk agent was less prepared, the housekeepers ignored my request to not be serviced until after noon (I worked overnight shifts while there), and my room was missed by housekeeping on the last day of my stay. Housekeeping tried entering my room twice while I was asleep. I checked with the front desk and was told they still had my note about not disturbing me before noon. The issues continued when I cut my hand on the stairwell railing. No big deal, but the bed sheets are white and I didn't want to bleed all over the room while I slept, so I asked the front desk for a bandage... they didn't have any. Are you telling me you don't have a first aid kit in the whole place? Not even for the employees? Anyway, no big deal, just really inconvenient. Another service issue occurred the final night of my stay. I went down to the business office around 1am to print my boarding passes. I just got back from work and wanted to print them before I was ready to check out. I was promptly informed the business office closed at 11pm. Why? It's just a room with two computers and a printer. You need key access to get in. What's they point of kicking me out? It was fine for the loud group in the dining room to sit around drinking beers at that time, but not ok for me to print my boarding passes and check e-mail... Ok. Even with that said, I'd stay here again. A clean, odorless hotel is worth it's weight in gold. I worked in a hotel for 7 years, so I understand where the service issues I experienced broke down. Everything could have been corrected if I was persistent, but I just wanted to sleep.More</t>
   </si>
   <si>
+    <t>jaggsmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r124669849-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -761,6 +830,9 @@
     <t>We stayed on the second floor and had a VERY quiet 3 night stay - didn't hear a thing! The beds and pillows are SO comfy and the room was spacious with a mini fridge and microwave as well. The morning/day staff - especially the lady at the front desk - was WONDERFUL! So friendly, cheery and helpful! Breakfast was good - hot items as well as the regular continental breakfast fare.  Also the location is wonderful - close to shopping and restaurants.  We would stay here again!More</t>
   </si>
   <si>
+    <t>dlwebbok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r117936325-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -800,6 +872,9 @@
     <t>I felt like we were in a frat house. People were running up and down the halls all night.  Front desk said they couldn't do anything about it.  Walls are paper thin and we heard everything all night.  If the hotel is going to be a hotel for tournaments, etc., they need to invest in security to keep things under control.More</t>
   </si>
   <si>
+    <t>clarapBenjamin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r108087737-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -821,6 +896,9 @@
     <t>My daughters and I had to go to Cedar Hill, Tx on Jan 31,  2011  because my son passed away.  It came an ice storm that night.  The electricity went off on the afternoon because the electric co. was shutting off electricity for hrs. at a time.  We had to move to another motel and called Holiday Inn Express for 3 rooms because we also had more people coming in.  We then went to my son's house to be with family and make funeral arrangements.  When we started to the motel the ice was so bad we could not get there.  We called the next morning to cancel reservations  because driving was so hazardous.  we were staying at my son's house.  They charged to my credit card $487 dollars because it was super bowl week-end and refuse to reverse the charges because we didn't get there.  We couldn't.  The ice storm continued and we could not have the funeral until the 5th of Feb. because of the ice.  I have tried since Feb. to get this reversed.  They refuse.  I ask for the owners name because the Express hotels are not part of HolIday Inn they are individually owned and when I ask for the owners name and address they gave me Hospital Corporation.  I called them and they said they did not own any property in Texas.  I guess the manager of these motels gets paid for every room...My daughters and I had to go to Cedar Hill, Tx on Jan 31,  2011  because my son passed away.  It came an ice storm that night.  The electricity went off on the afternoon because the electric co. was shutting off electricity for hrs. at a time.  We had to move to another motel and called Holiday Inn Express for 3 rooms because we also had more people coming in.  We then went to my son's house to be with family and make funeral arrangements.  When we started to the motel the ice was so bad we could not get there.  We called the next morning to cancel reservations  because driving was so hazardous.  we were staying at my son's house.  They charged to my credit card $487 dollars because it was super bowl week-end and refuse to reverse the charges because we didn't get there.  We couldn't.  The ice storm continued and we could not have the funeral until the 5th of Feb. because of the ice.  I have tried since Feb. to get this reversed.  They refuse.  I ask for the owners name because the Express hotels are not part of HolIday Inn they are individually owned and when I ask for the owners name and address they gave me Hospital Corporation.  I called them and they said they did not own any property in Texas.  I guess the manager of these motels gets paid for every room they book.  Any way it was very bad.  My son died, we couldn't get to the motel and I get charged $487 dollars for rooms we couldn't use.  I will never use the Holiday Inn Express again and I will tell my story forever.More</t>
   </si>
   <si>
+    <t>SafetyHarbor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r59613012-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -842,6 +920,9 @@
     <t>Stayed here for one night on Business very well appointed , good size room and facilities . Competent friendly staff, and a good hot breakfast. Excellent Value.Only one minus. I don't think there is any insulation in the walls between rooms, I could hear the conversation, bathroom activities and new which channel their TV was on. Plenty of parking, good access to the freeway to DFW and shops next door.More</t>
   </si>
   <si>
+    <t>digger2007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r55212858-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -861,6 +942,9 @@
   </si>
   <si>
     <t>We have stayed for three nights at HI Cedar Hill and are due to leave tomorrow for our next location, San Antonio. The hotel is brand new so as you would expect it's spotless. The staff are very helpful and the rooms are very nice. We've stayed in a room at the front of the hotel and could hear some trafic noise from the road. When we checked in the receptionist told us about the noise and offered to change our room if it became a problem. The suites are not the biggest we've stayed in but are adequate and comfortable. There is a fridge, microwave, coffee machine and hairdryer. There is a small indoor heated pool and hot tub which is open till 23hrs. There's also a small shop that sells drinks, snacks and ice cream.There are plenty of shops and restaurants within a five minute drive. The hotel was only meant as a base for us, i would imagine that it would suit business people rather than holiday makers, we drove into Dallas twice and it only took 25 minutes.More</t>
+  </si>
+  <si>
+    <t>chairtay</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r50282531-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
@@ -1386,43 +1470,47 @@
       <c r="A2" t="n">
         <v>59666</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>58154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1434,56 +1522,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59666</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>15609</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1501,56 +1593,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59666</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1568,56 +1664,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59666</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155321</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1629,56 +1729,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59666</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155322</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1690,47 +1794,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59666</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155323</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
@@ -1747,56 +1855,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59666</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>74754</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1808,56 +1920,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59666</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155324</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1873,56 +1989,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59666</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155325</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1934,56 +2054,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59666</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>113425</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -1999,56 +2123,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59666</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155326</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2066,47 +2194,51 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59666</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155327</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
@@ -2133,56 +2265,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59666</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155328</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2194,56 +2330,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59666</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>116868</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2259,56 +2399,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59666</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>20839</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2324,56 +2468,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59666</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>95382</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2395,56 +2543,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59666</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>82333</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2466,56 +2618,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59666</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155329</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2535,56 +2691,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59666</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>19183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2606,56 +2766,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X20" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59666</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>70965</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2677,47 +2841,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59666</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155330</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -2744,13 +2912,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X22" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
@@ -2763,37 +2931,37 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="K23" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -2815,47 +2983,51 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X23" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59666</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155331</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
@@ -2882,56 +3054,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59666</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155310</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -2953,56 +3129,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X25" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59666</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155332</v>
+      </c>
+      <c r="C26" t="s">
+        <v>268</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3020,13 +3200,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X26" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
@@ -3039,28 +3219,28 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
@@ -3087,56 +3267,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X27" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y27" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59666</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155333</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="J28" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3150,56 +3334,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X28" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59666</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155334</v>
+      </c>
+      <c r="C29" t="s">
+        <v>290</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3221,56 +3409,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X29" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59666</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>92146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>298</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="J30" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3292,56 +3484,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X30" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y30" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59666</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155335</v>
+      </c>
+      <c r="C31" t="s">
+        <v>306</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="J31" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="K31" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="L31" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3353,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X31" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y31" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_357.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_357.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,186 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>L R</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r601636074-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>55597</t>
+  </si>
+  <si>
+    <t>1382867</t>
+  </si>
+  <si>
+    <t>601636074</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Birthday stacation</t>
+  </si>
+  <si>
+    <t>This property is centrally located, easily accessible and close to restaurants and plenty of shopping!The entire staff is extremely courteous and always ready to help in any way possible! Hotel is very clean, great indoor pool and it sure does smell nice! ️</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r580874923-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>580874923</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Last Minute Visit</t>
+  </si>
+  <si>
+    <t>My husband and I took a road trip and picked our hotels while on the road.  We knew we were going to Waco after Dallas so we selected the hotel in Cedar Hill.  The woman at the reception desk, Trinette I believe, was super warm and welcoming.  She even called us about 20 minutes after we checked in to make sure the room was satisfactory.  If you’ve ever stayed at a Holiday Inn Express, you know they’re all designed the same so what makes the experience different are the employees!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I took a road trip and picked our hotels while on the road.  We knew we were going to Waco after Dallas so we selected the hotel in Cedar Hill.  The woman at the reception desk, Trinette I believe, was super warm and welcoming.  She even called us about 20 minutes after we checked in to make sure the room was satisfactory.  If you’ve ever stayed at a Holiday Inn Express, you know they’re all designed the same so what makes the experience different are the employees!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r589952399-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>589952399</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Could Be Better</t>
+  </si>
+  <si>
+    <t>I have stayed at this property on a couple of occasions.  It's probably a 3* property and most of the staff is vey friendly.  This is the only IHG property that has not given me bonus points on a bonus night stay and then the manager argued with me about it. I'd rather stay in Desoto.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>MSM689, Owner at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed at this property on a couple of occasions.  It's probably a 3* property and most of the staff is vey friendly.  This is the only IHG property that has not given me bonus points on a bonus night stay and then the manager argued with me about it. I'd rather stay in Desoto.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r581556148-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>581556148</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good! </t>
+  </si>
+  <si>
+    <t>Needed a couple of blankets so I called the front desk and within a couple of minutes they were up here! It was so quick and efficient I was very surprised! Check in was also quick and the guy was polite and very welcoming.  Room was very clean.  I was a little surprised at how day sounds travel through the walls so heading the rumblings of my neighbor's convos was a little annoying but with the air conditioning on, you can't really hear them as much.Overall, very good experience! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Needed a couple of blankets so I called the front desk and within a couple of minutes they were up here! It was so quick and efficient I was very surprised! Check in was also quick and the guy was polite and very welcoming.  Room was very clean.  I was a little surprised at how day sounds travel through the walls so heading the rumblings of my neighbor's convos was a little annoying but with the air conditioning on, you can't really hear them as much.Overall, very good experience! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r553655000-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>553655000</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>The property is not bad, the rooms are not bad but lacking in organizational structure with certain staff members but the effort is there. The hotel is right is the highway but not a lot of noise. There are restaurants nearby,  movie theatre and plenty of shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>MSM689, Public Relations Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>The property is not bad, the rooms are not bad but lacking in organizational structure with certain staff members but the effort is there. The hotel is right is the highway but not a lot of noise. There are restaurants nearby,  movie theatre and plenty of shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r517060998-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>517060998</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Impressive</t>
+  </si>
+  <si>
+    <t>I stay at many holiday inn exp locations across Texas.  This is the first 5 star rating I've given right away. Very clean hotel. Staff was excellent. Located in an area with multiple good restaurants and shops. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stay at many holiday inn exp locations across Texas.  This is the first 5 star rating I've given right away. Very clean hotel. Staff was excellent. Located in an area with multiple good restaurants and shops. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r515850408-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>515850408</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Very Comfortable!</t>
+  </si>
+  <si>
+    <t>I had such a pleasant stay at this hotel. I was there during an extremely busy time but had made my reservation a month prior. I had to unexpectedly stay an extra night and the rooms were completely booked. The manager kept me updated about cancellations and eventually I was able to get a room for one more night without having to change rooms. Thank you for going out of your way to see that I was accommodated! Beds were awesome, too! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I had such a pleasant stay at this hotel. I was there during an extremely busy time but had made my reservation a month prior. I had to unexpectedly stay an extra night and the rooms were completely booked. The manager kept me updated about cancellations and eventually I was able to get a room for one more night without having to change rooms. Thank you for going out of your way to see that I was accommodated! Beds were awesome, too! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r491845400-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
-    <t>55597</t>
-  </si>
-  <si>
-    <t>1382867</t>
-  </si>
-  <si>
     <t>491845400</t>
   </si>
   <si>
@@ -180,9 +345,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded June 21, 2017</t>
   </si>
   <si>
@@ -192,9 +354,6 @@
     <t>Check-in was incredibly slow. Later discovered the door to the room didn't lock from the outside. Reported the issue to the hotel manger. Three hours later the problem was still not resolved and the manager and maintenance had left for the day. Night manager moved us from our double queen for 3 people to a handicap king and pull out sofa. What a terrible inconvenience to repack/unpack everything again after a long day of travel! Also, couldn't call the elevator on the floor so had to use stairs to move all our things. To top it off, the shower head was broken in the new unit. Reported that issue to manager at 7:30am today. It's 8:30pm and issue still has not been resolved. Guess I'll have to take a shower on my knees again tonight. Staff was rude and incredibly unresponsive. Will NEVER stay here again!More</t>
   </si>
   <si>
-    <t>Greg G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r484645122-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -213,9 +372,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded May 17, 2017</t>
   </si>
   <si>
@@ -225,9 +381,6 @@
     <t>Great motel just south of Dallas Texas. A newer property pet friendly and close to all Dallas attractions. Nice clean quiet room, The staff was very attentive and friendly, a nice alternative to staying in crowded Dallas. A short 15 drive to downtown Dallas.More</t>
   </si>
   <si>
-    <t>jsmcgold</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r474116090-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -243,12 +396,6 @@
     <t>I am a frequent traveler and this was the worst experience I have ever had with any hotel chain. Mark, the general manager should not be a manager in the hospitality industry. I have never been treated so poorly and satisfaction is not a guarantee by far.The fire alarm went off at 2:30 in the morning and was still going off at 10:30 am when I checked out. The general manager offered nothing and was rude! Worst experience ever!!!MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded April 27, 2017</t>
   </si>
   <si>
@@ -258,9 +405,6 @@
     <t>I am a frequent traveler and this was the worst experience I have ever had with any hotel chain. Mark, the general manager should not be a manager in the hospitality industry. I have never been treated so poorly and satisfaction is not a guarantee by far.The fire alarm went off at 2:30 in the morning and was still going off at 10:30 am when I checked out. The general manager offered nothing and was rude! Worst experience ever!!!More</t>
   </si>
   <si>
-    <t>Smartie752</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r449536602-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -288,9 +432,6 @@
     <t>Very nice hotel.  Excellent housekeepers, great breakfast, nice furnishings.  Very impressed.  They want me to say more, so I'll add that our heating/ac stopped working just before we checked out.  Reported to manager who jumped right on it.  Can't ask for more than that!  :)More</t>
   </si>
   <si>
-    <t>bubears-sicem</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r425988404-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -318,7 +459,133 @@
     <t>Entered room and it smelled like smoke.  Front desk says that rooms are all non-smoking and never have been.  The placards on the walls have no smoking signs and they also have many where there is not a non smoking sign.  Staying for free on points otherwise would check out of hotel More</t>
   </si>
   <si>
-    <t>tmmlump1</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r396851677-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>396851677</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>A Great Stay</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for one night. When I’m in this area I usually stay at another chain's property about a mile away but decided to try this hotel because I got a better rate. I was pleasantly surprised. When I arrived I was checked in right way. My King room was spotless and quiet. The bed so comfortable that I changed my plans and just rested. I will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>MSM689, General Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for one night. When I’m in this area I usually stay at another chain's property about a mile away but decided to try this hotel because I got a better rate. I was pleasantly surprised. When I arrived I was checked in right way. My King room was spotless and quiet. The bed so comfortable that I changed my plans and just rested. I will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r351963453-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>351963453</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>David is top notch!</t>
+  </si>
+  <si>
+    <t>It would not have mattered how the rest of my stay went after being told my room was ready early and I could check in early due to having a super early flight and my daughter and Grandson (9 mth old) coming over to spend time with me before having to work. You made these weary travelers very happy! That made this a 5 Star trip for me. The little things truly mean a lot! Thanks again, David, for being so accommodating!Food was average (breakfast) and they have a nice indoor pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>It would not have mattered how the rest of my stay went after being told my room was ready early and I could check in early due to having a super early flight and my daughter and Grandson (9 mth old) coming over to spend time with me before having to work. You made these weary travelers very happy! That made this a 5 Star trip for me. The little things truly mean a lot! Thanks again, David, for being so accommodating!Food was average (breakfast) and they have a nice indoor pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r338956793-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>338956793</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>Double check on special events BEFORE booking</t>
+  </si>
+  <si>
+    <t>Went to Dallas area for a youth basketball tournament, 8th grade and younger. Made a big mistake of booking where many of the basketball players were staying. Asked for a quiet room and the person at the front desk did his very best. Room was very clean and beds super comfortable but at 1 a.m. we and many  of the third floor customers were awakened by a group of children around ten years old unsupervised, running up and down the hall, slamming doors and shouting. Contacted the front desk and the night person was reluctant to take any direct action. I had instructed the children to go to their rooms and stay there. I was concerned that perhaps the police should be called if there were no adults to supervise them. When I spoke with the clerk in the morning he said he had called the room several times with no answer and had patrolled the floor with no further disturbance. I was very concerned that he had not tried harder to find out what was going on with the unsupervised children. Also, the elevator was not working and the night clerk did not know how to reset it. Since we did not get much sleep we were comped the room which we appreciated. The breakfast room was very nice but breakfast so-so. TIP: there is no such thing as a quiet floor here because you can hear everything through...Went to Dallas area for a youth basketball tournament, 8th grade and younger. Made a big mistake of booking where many of the basketball players were staying. Asked for a quiet room and the person at the front desk did his very best. Room was very clean and beds super comfortable but at 1 a.m. we and many  of the third floor customers were awakened by a group of children around ten years old unsupervised, running up and down the hall, slamming doors and shouting. Contacted the front desk and the night person was reluctant to take any direct action. I had instructed the children to go to their rooms and stay there. I was concerned that perhaps the police should be called if there were no adults to supervise them. When I spoke with the clerk in the morning he said he had called the room several times with no answer and had patrolled the floor with no further disturbance. I was very concerned that he had not tried harder to find out what was going on with the unsupervised children. Also, the elevator was not working and the night clerk did not know how to reset it. Since we did not get much sleep we were comped the room which we appreciated. The breakfast room was very nice but breakfast so-so. TIP: there is no such thing as a quiet floor here because you can hear everything through the door so find out if they have groups staying that may cause problems with noise before booking.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Went to Dallas area for a youth basketball tournament, 8th grade and younger. Made a big mistake of booking where many of the basketball players were staying. Asked for a quiet room and the person at the front desk did his very best. Room was very clean and beds super comfortable but at 1 a.m. we and many  of the third floor customers were awakened by a group of children around ten years old unsupervised, running up and down the hall, slamming doors and shouting. Contacted the front desk and the night person was reluctant to take any direct action. I had instructed the children to go to their rooms and stay there. I was concerned that perhaps the police should be called if there were no adults to supervise them. When I spoke with the clerk in the morning he said he had called the room several times with no answer and had patrolled the floor with no further disturbance. I was very concerned that he had not tried harder to find out what was going on with the unsupervised children. Also, the elevator was not working and the night clerk did not know how to reset it. Since we did not get much sleep we were comped the room which we appreciated. The breakfast room was very nice but breakfast so-so. TIP: there is no such thing as a quiet floor here because you can hear everything through...Went to Dallas area for a youth basketball tournament, 8th grade and younger. Made a big mistake of booking where many of the basketball players were staying. Asked for a quiet room and the person at the front desk did his very best. Room was very clean and beds super comfortable but at 1 a.m. we and many  of the third floor customers were awakened by a group of children around ten years old unsupervised, running up and down the hall, slamming doors and shouting. Contacted the front desk and the night person was reluctant to take any direct action. I had instructed the children to go to their rooms and stay there. I was concerned that perhaps the police should be called if there were no adults to supervise them. When I spoke with the clerk in the morning he said he had called the room several times with no answer and had patrolled the floor with no further disturbance. I was very concerned that he had not tried harder to find out what was going on with the unsupervised children. Also, the elevator was not working and the night clerk did not know how to reset it. Since we did not get much sleep we were comped the room which we appreciated. The breakfast room was very nice but breakfast so-so. TIP: there is no such thing as a quiet floor here because you can hear everything through the door so find out if they have groups staying that may cause problems with noise before booking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r331938029-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>331938029</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Nice, Clean Stay</t>
+  </si>
+  <si>
+    <t>We have a nice clean comfortable room that has free breakfast. It is a nice touch to have the refrigerator and microwave in the room.The staff provided excellent service, the room attendant did an outstanding job keeping our room clean and well attended.I strongly recommend this hotel as a place to stay when in the Cedar Hill area. Close to lots of restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded December 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2015</t>
+  </si>
+  <si>
+    <t>We have a nice clean comfortable room that has free breakfast. It is a nice touch to have the refrigerator and microwave in the room.The staff provided excellent service, the room attendant did an outstanding job keeping our room clean and well attended.I strongly recommend this hotel as a place to stay when in the Cedar Hill area. Close to lots of restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r330433349-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>330433349</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanksgiving Visit </t>
+  </si>
+  <si>
+    <t>The front desk staff were excellent. They were very busy as you can imagine over this Thanksgiving Holiday, yet they were very polite, courteous and helpful, very professional group. The hotel was spotless, and they have an amazing indoor pool and spa, really convenient location on HWY 67 as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded December 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2015</t>
+  </si>
+  <si>
+    <t>The front desk staff were excellent. They were very busy as you can imagine over this Thanksgiving Holiday, yet they were very polite, courteous and helpful, very professional group. The hotel was spotless, and they have an amazing indoor pool and spa, really convenient location on HWY 67 as well.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r328690901-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
@@ -345,9 +612,6 @@
     <t>Stayed one night at this hotel. Clean room, nice bed and breakfast. We would stay here again. No problems. We need notice something different we liked. The room had a king and  a queen bed. Like that better than 2 queens. Friendly staff and good location. More</t>
   </si>
   <si>
-    <t>MrsRicks76</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r327174201-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -369,9 +633,6 @@
     <t>My family and I stayed at this hotel November 14 for 1 night. We checked in late, after 9 pm. I wished we could have gotten a suite, but only a king room or 2 double beds were given as optiokkns. We chose the king room. The room and bathroom were clean. The bed was comfy. The chair and the footrest were both worn and stained. The carpet had some stains as well. The room number was 105, and it could use some updating, which is the only reason I didn't rate this stay 5 stars. The breakfast was great and fresh with a nice variety. The attendant was friendly and helpful. For future travelers, please don't forget to tip the staff at breakfast, as they deal with a lot and are seldom given gratuity/monetary tips.More</t>
   </si>
   <si>
-    <t>ABog37</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r320890432-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -402,9 +663,6 @@
     <t>The nasty "cleanser" chemical smell that overwhelms you when you are anywhere in the building is a problem. We had a horrible fetid smell in our room, opening a window may have helped a bit but room windows don't open.  We were staying there for about 4 days for a wedding and they could not accommodate us. I would never stay here again.Awful and lazy management.More</t>
   </si>
   <si>
-    <t>jeff_grizzle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r308467303-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -432,9 +690,6 @@
     <t>The stay at  Holiday Inn express in Cedar Hill Texas was most pleasant. The staff was helpful and polite. The hotel was located near where  we needed to be and that made it very convenient. Would stay there again should occasion arise.More</t>
   </si>
   <si>
-    <t>Jacqueline T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r299677854-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -453,9 +708,6 @@
     <t>We stayed here for 4 nights for my SIL's wedding and it was a great location near stores and an outside shopping mall.  It was an added treat as for the month of August they had free pancakes for guest from 8PM-12AM.  We stayed in room 206 with double beds as we had our 2 year old with us.  It overlooked the front entrance area.  The hotel was at full capacity and we had other family members staying there as well.  They overbooked and when my BIN checked in they upgraded him to a king suite which was better than room he was supposed to get.  We are just thankful that he didn't have to stay at a different hotel.  Other than that little hiccup everything was as expected.  The staff were friendly.  They also had an indoor pool which would have been nice to dip into with our son but we were busy with wedding errands the entire stay.More</t>
   </si>
   <si>
-    <t>sumonesvaca</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r254765725-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -474,9 +726,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded June 30, 2015</t>
   </si>
   <si>
@@ -486,9 +735,6 @@
     <t>Moved to this Holiday Inn from another one.  Stayed 2 nights.  In town for a funeral of a long time friend, so sad occasion.  Staff was friendly and kind. Check in was easy.  The room was clean and spacious.  I used the gym while I was there, the stationary bike seemed dated and inaccurate.  The breakfast was good and the area very clean.    Had a difficult finding the place and went to the wrong one, because the actual address of this hotel is Antoine St. not N. Hwy 67 although N. Hiwy 67 runs in front of it.  I would def. stay here again if the opportunity arose and highly recommend this hotel.More</t>
   </si>
   <si>
-    <t>LisaB1970</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r254297699-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -507,9 +753,6 @@
     <t>2 night stay for cycling event at Cedar Hill State Park. Very close to the event, easy access to restraunts &amp; shopping. Facility was clean, seemed relatively new, and our King Suit was spacious for our family of 3 plus small puppy. Free Breakfast was actually good &amp; had healthy options.  You'll be pleased.More</t>
   </si>
   <si>
-    <t>Tomanytowns</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r237642004-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -537,9 +780,6 @@
     <t>This Holiday seems to have things together. Clean rooms and amenities (shampoo etc.) stocked. Better access to restaurants. Nothing more to say other than the snack area was full of choices and nutty buddy ice cream cones if I wanted one. And USA today was available. Hopefully this is now 200 characters. More</t>
   </si>
   <si>
-    <t>Crystal H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r223299250-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -558,18 +798,9 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>MSM689, Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded March 2, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 2, 2016</t>
-  </si>
-  <si>
     <t>Everything was great at this hotel. The ladies and gentlemen at the front desk were friendly, the breakfast was hot and fresh. The breakfast host Lorena (I believe) made some awesome cookies. The housekeepers were all friendly and did a great job keeping the rooms clean. Thanks Holiday Inn Express for a great stay! I will defiantly be back soon.More</t>
   </si>
   <si>
-    <t>Kathy L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r219456786-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -597,9 +828,6 @@
     <t>I love this hotel. The room was very nice and spacious and clean. The staff was very friendly and answered any questions I had about the area, mostly about food. I also liked the free Wi-Fi and the fact that they had a little food store with minor food ideas, drinks, and treats. None of the ice machines seemed to be working, but there was a fridge in the room so that was fine. I also loved how they had two different kinds of pillows, two soft and two firm.The only thing that bothered me was that they didn't have a shuttle service available for guests considering there was a strip/outdoor mall less than 10 minutes from the hotel, let alone plenty of other shops and restaurants in the area that would've been nice to see, (reason for the 4 out of 5).The number one thing I loved about this hotel was the help I received the day I checkout. My taxi took over 2 hours and never came to pick me up, even after I called them a second time. The woman at the front desk, Priscilla(?), was such a great help letting me use her phone to try and call for another taxi, (which still didn't come). She then called her guy and he came within 5-10 minutes to pick me up. So thank you Priscilla for all your help!More</t>
   </si>
   <si>
-    <t>Tess T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r200535126-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -621,9 +849,6 @@
     <t>We often travel with our puppy and chose to stay at this HIE because of their very reasonable one time pet fee.  We were pleasantly surprised at how nice, clean and well maintained the rooms are.  We booked a King Leisure which was spacious.  The staff were super friendly and accommodating.  It is close to a lot of restaurants and good shopping.  We will surely stay here again.More</t>
   </si>
   <si>
-    <t>GadgetMedic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r194643696-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -645,9 +870,6 @@
     <t>Holiday Inn Express are usually very similar and predictable, that's why I stay in them.  I will say that the staff at this location were exceptionally friendly from check in to breakfast and check out.  The quality of the breakfast was good, normal HIE choices, but clean and well presented.Overall impression: A convenient, friendly comfy place to stay in Cedar Hill.More</t>
   </si>
   <si>
-    <t>rimrock</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r186689638-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -675,9 +897,6 @@
     <t>We have stayed here 5 or 6 times over the course of two years. It's always overrun with sports teams in the summer, and  the children are always running up and down the halls at all hours of the day and night with no supervision at all. And yes, they are are always screaming. And also the elevators are incredibly sloooooow. I won't be staying here again, I've given it enough chances.More</t>
   </si>
   <si>
-    <t>Heather B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r165125512-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -699,9 +918,6 @@
     <t>We came to Cedar Hills for a Bible Quiz competition and lots of the other quiz families were also staying at this hotel so it was very crowded.  They did an excellent job of keeping the breakfast buffet stocked for all of the hungry kiddos.  Since we were driving, we got into the hotel very late at night and had the pleasure of meeting Chad, the night front desk person.  He was fabulous!  We were all tired and a little grumpy after 18 hours of being in the car, but he was super friendly and made the check in process great!  If we are ever in Texas again, we will definitely be back to this hotel!More</t>
   </si>
   <si>
-    <t>franklinmilford</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r158845106-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -729,7 +945,124 @@
     <t>After reading other reviews, I was optimistic about my 5 night stay, perhaps overly so. I arrived early and was not allowed check in because of sold out situation for a wedding, okay. When I returned for check in, the same surly clerk checked me in, no notice of Priority Club member ship, no name tag or uniform, still very minor issues. The clerk was extremely busy with a full house and wedding party going on in lobby,(waiting for limos,etc.), so she was working very hard, perhaps 2 clerks for this time of day. The lobby area is well done, modern and clean lines. The beakfast area is one of the nicer ones I have seen in this chain. There is a small "Sweet Spot" convenience store area off the front desk, soda, ice cream,candy, the name well deserved! The room was spotless, as well as all common areas. Cleanliness IS a priority here, and that is something others don't do well. The room was nicely appointed, the bed comfortable, the towels large and fluffy, flat screen TV and ammenities by Bath and Body Works, perks that work! The breakfast area is huge, everal sitting areas, a communalr tall stool bar area, beautiful! The usual HIE fare was available, cinnamon rolls, bacon, eggs, and a pancake machine that was even advertised in the elevator, but it was out of order during my stay, something that did not effect me at...After reading other reviews, I was optimistic about my 5 night stay, perhaps overly so. I arrived early and was not allowed check in because of sold out situation for a wedding, okay. When I returned for check in, the same surly clerk checked me in, no notice of Priority Club member ship, no name tag or uniform, still very minor issues. The clerk was extremely busy with a full house and wedding party going on in lobby,(waiting for limos,etc.), so she was working very hard, perhaps 2 clerks for this time of day. The lobby area is well done, modern and clean lines. The beakfast area is one of the nicer ones I have seen in this chain. There is a small "Sweet Spot" convenience store area off the front desk, soda, ice cream,candy, the name well deserved! The room was spotless, as well as all common areas. Cleanliness IS a priority here, and that is something others don't do well. The room was nicely appointed, the bed comfortable, the towels large and fluffy, flat screen TV and ammenities by Bath and Body Works, perks that work! The breakfast area is huge, everal sitting areas, a communalr tall stool bar area, beautiful! The usual HIE fare was available, cinnamon rolls, bacon, eggs, and a pancake machine that was even advertised in the elevator, but it was out of order during my stay, something that did not effect me at all. One of the better breakfast offerings at this price point. There is a beautiful indoor swimming pool and whirlpool area, but I didnt try this area. Unfortunately the downside.... upon checking into room I noticed the lack of hangers, so I called housekeeping and front desk for them, was told they were on the way twice, I was still waiting five days later. As noticed by other reviewers, the walls are paper thin, and I had an adjoining room which made it possible for me to listen to my neighbors phone calls without trying, and they were using normal speaking tones, not loud. When I went downstairs to purchase a drink, the same check in desk clerk was watching private laptop shows and was behind the desk barefoot, not really 5 star! One night when I returned to the room I had lost my key. The desk clerk (I hadnt seen before), made me a new one without asking for ID, a major security issue that management needs to address immediately. There is a very loud air conditioner outside the -02 rooms, and I was on the thrid floor and the noise from this overtook my AC unit and TV. At one time I went to the window and looked for a helicopter pad, as this noise was intermittent all night and day. The desk clrek said this was becauseof the smoking rooms, but there was not vent in my room, and this unit could have been placed further from the window. The manager, Mark West was at the front desk for check out, and asked if there were problems during my stay. I mentioned the above items, and I honestly believed he was concerned and was not aware of these issues. He promised they would be taken care of, and since I will be returning to this area, we shall see. I will definitely stay at this property again, as the kinks I experienced do lean toward new management, and Mark seems to care about his property. Hopefully next review will garner at least one more star. If you overlook the minor, your stay here will be comfortable, your tummy will be full, and you will come back also!More</t>
   </si>
   <si>
-    <t>mama1013</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r158051039-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>158051039</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>I typically stay at four and five star hotels but couldn't find one close enough to my sons wedding venue. I was worried about staying at the holiday inn express but shouldn't have been. The hotel is extremely clean and well cared for. I'm a bit of a germaphobe and always wipe everything down with a Clorox wipe and I was amazed at it wasn't full of dirt and still looked clean! Also, everyone from the receptionist to the maid was extremely friendly and genuine. The hotel had a lovely sitting and breakfast area with great coffee. While they don't  have five star amenities they do have five star staff.  I don't have a single complaint about the hotel or staff and will stay at holiday inn expresses more often.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mark W, General Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>I typically stay at four and five star hotels but couldn't find one close enough to my sons wedding venue. I was worried about staying at the holiday inn express but shouldn't have been. The hotel is extremely clean and well cared for. I'm a bit of a germaphobe and always wipe everything down with a Clorox wipe and I was amazed at it wasn't full of dirt and still looked clean! Also, everyone from the receptionist to the maid was extremely friendly and genuine. The hotel had a lovely sitting and breakfast area with great coffee. While they don't  have five star amenities they do have five star staff.  I don't have a single complaint about the hotel or staff and will stay at holiday inn expresses more often.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r153740538-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>153740538</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>Great Stay in Dallas Area</t>
+  </si>
+  <si>
+    <t>This was our second time to stay at this hotel. They have a great breakfast and are very close to the shops at cedar hill. Our dance team stays here when we go to Desoto dance competition every year. Go to the old downtown area for dinner, Sam's Pizza was great and the family owned atmosphere was so much better than franchise row out on interstate.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>This was our second time to stay at this hotel. They have a great breakfast and are very close to the shops at cedar hill. Our dance team stays here when we go to Desoto dance competition every year. Go to the old downtown area for dinner, Sam's Pizza was great and the family owned atmosphere was so much better than franchise row out on interstate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r153256480-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>153256480</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This hotel is a great place. Comfy beds, great indoor pool and hot tub and a great full breakfast buffet. We didn't get to the buffet until 0915 each morning and it wastill fully stocked even though the buffet closed at 0930. We all had a nice leisurly breakfast. I'll stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Mark W, General Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is a great place. Comfy beds, great indoor pool and hot tub and a great full breakfast buffet. We didn't get to the buffet until 0915 each morning and it wastill fully stocked even though the buffet closed at 0930. We all had a nice leisurly breakfast. I'll stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r151574272-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>151574272</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>Nice room and staff, but...</t>
+  </si>
+  <si>
+    <t>Walls are paper thin.  I could hear every word of the people in the room next to me.  EVERY WORD.  The staff was sympathetic, but could do nothing to help.  The people in the room next to me were busy all night long.  Very busy.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Walls are paper thin.  I could hear every word of the people in the room next to me.  EVERY WORD.  The staff was sympathetic, but could do nothing to help.  The people in the room next to me were busy all night long.  Very busy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r144658552-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
+  </si>
+  <si>
+    <t>144658552</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Amazing!!!!!!!</t>
+  </si>
+  <si>
+    <t>Yes!!!  I have tried a lot of places and found this hotel to be the best of the best.  My boyfriend is in college at Northwood University, so I have been staying at this hotel every weekend since the end of August.  The rooms are very clean and comfortable.  The staff is amazing!  The breakfast that they serve is yummy and plentiful!  I would, and have stay here again and again!!  Highly recommend!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Mark W, General Manager at Holiday Inn Express Hotel &amp; Suites Cedar Hill, responded to this reviewResponded March 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2013</t>
+  </si>
+  <si>
+    <t>Yes!!!  I have tried a lot of places and found this hotel to be the best of the best.  My boyfriend is in college at Northwood University, so I have been staying at this hotel every weekend since the end of August.  The rooms are very clean and comfortable.  The staff is amazing!  The breakfast that they serve is yummy and plentiful!  I would, and have stay here again and again!!  Highly recommend!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r143976536-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
@@ -769,9 +1102,6 @@
   </si>
   <si>
     <t>We spent 2 nights here while in town for a funeral.We were automatically upgraded to a king suite (Platinum member) without even asking.  Check-in and check-out was handled quickly and professionally.The room was large and everything was very clean and TV, fridge, microwave all worked well.  The temperature was controlled by wall thermostat and was well maintained.  I thought that noise might be an issue since the room was very close to the entry, across from the breakfast/break area, and close to the elevator - but we heard nothing! The bed was the standard HI Express king which is always very comfortable.This hotel had a large selection of snacks and microwave meals avail at the desk. The breakfast food was the standard HI preakfast and was kept well stocked - even has sugar-free pancake syrup which not all sites have.The location was good and we did not have any concerns for safetyMore</t>
-  </si>
-  <si>
-    <t>cliphord</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r128318038-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
@@ -806,9 +1136,6 @@
 The issues continued when I cut my hand on the stairwell railing. No big deal, but the bed sheets are white and I didn't want to bleed all over the room while I slept, so I asked the front desk for a bandage... they didn't have any. Are you telling me you...I stayed here for 5 nights on a business trip. I found the room and ammenities to be in excellent order. The room was spotless. This establishment must be fairly new. The location is great if you're looking for access to the immediate area and Dallas. There are several chain restaurants (Buffalo Wild Wings, Panera Bread, fast food) almost within walking distance if it weren't for a busy highway separating the hotel from the shopping center. A Super Target, Best Buy, and very nice outdoor mall are 5 minutes away. Staying on business, I made use of the Target. The service was very good... during the week. When the "weekend" staff came on Friday, the service was noticeably worse. The front desk agent was less prepared, the housekeepers ignored my request to not be serviced until after noon (I worked overnight shifts while there), and my room was missed by housekeeping on the last day of my stay. Housekeeping tried entering my room twice while I was asleep. I checked with the front desk and was told they still had my note about not disturbing me before noon. The issues continued when I cut my hand on the stairwell railing. No big deal, but the bed sheets are white and I didn't want to bleed all over the room while I slept, so I asked the front desk for a bandage... they didn't have any. Are you telling me you don't have a first aid kit in the whole place? Not even for the employees? Anyway, no big deal, just really inconvenient. Another service issue occurred the final night of my stay. I went down to the business office around 1am to print my boarding passes. I just got back from work and wanted to print them before I was ready to check out. I was promptly informed the business office closed at 11pm. Why? It's just a room with two computers and a printer. You need key access to get in. What's they point of kicking me out? It was fine for the loud group in the dining room to sit around drinking beers at that time, but not ok for me to print my boarding passes and check e-mail... Ok. Even with that said, I'd stay here again. A clean, odorless hotel is worth it's weight in gold. I worked in a hotel for 7 years, so I understand where the service issues I experienced broke down. Everything could have been corrected if I was persistent, but I just wanted to sleep.More</t>
   </si>
   <si>
-    <t>jaggsmith</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r124669849-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -830,9 +1157,6 @@
     <t>We stayed on the second floor and had a VERY quiet 3 night stay - didn't hear a thing! The beds and pillows are SO comfy and the room was spacious with a mini fridge and microwave as well. The morning/day staff - especially the lady at the front desk - was WONDERFUL! So friendly, cheery and helpful! Breakfast was good - hot items as well as the regular continental breakfast fare.  Also the location is wonderful - close to shopping and restaurants.  We would stay here again!More</t>
   </si>
   <si>
-    <t>dlwebbok</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r117936325-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -872,9 +1196,6 @@
     <t>I felt like we were in a frat house. People were running up and down the halls all night.  Front desk said they couldn't do anything about it.  Walls are paper thin and we heard everything all night.  If the hotel is going to be a hotel for tournaments, etc., they need to invest in security to keep things under control.More</t>
   </si>
   <si>
-    <t>clarapBenjamin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r108087737-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -896,9 +1217,6 @@
     <t>My daughters and I had to go to Cedar Hill, Tx on Jan 31,  2011  because my son passed away.  It came an ice storm that night.  The electricity went off on the afternoon because the electric co. was shutting off electricity for hrs. at a time.  We had to move to another motel and called Holiday Inn Express for 3 rooms because we also had more people coming in.  We then went to my son's house to be with family and make funeral arrangements.  When we started to the motel the ice was so bad we could not get there.  We called the next morning to cancel reservations  because driving was so hazardous.  we were staying at my son's house.  They charged to my credit card $487 dollars because it was super bowl week-end and refuse to reverse the charges because we didn't get there.  We couldn't.  The ice storm continued and we could not have the funeral until the 5th of Feb. because of the ice.  I have tried since Feb. to get this reversed.  They refuse.  I ask for the owners name because the Express hotels are not part of HolIday Inn they are individually owned and when I ask for the owners name and address they gave me Hospital Corporation.  I called them and they said they did not own any property in Texas.  I guess the manager of these motels gets paid for every room...My daughters and I had to go to Cedar Hill, Tx on Jan 31,  2011  because my son passed away.  It came an ice storm that night.  The electricity went off on the afternoon because the electric co. was shutting off electricity for hrs. at a time.  We had to move to another motel and called Holiday Inn Express for 3 rooms because we also had more people coming in.  We then went to my son's house to be with family and make funeral arrangements.  When we started to the motel the ice was so bad we could not get there.  We called the next morning to cancel reservations  because driving was so hazardous.  we were staying at my son's house.  They charged to my credit card $487 dollars because it was super bowl week-end and refuse to reverse the charges because we didn't get there.  We couldn't.  The ice storm continued and we could not have the funeral until the 5th of Feb. because of the ice.  I have tried since Feb. to get this reversed.  They refuse.  I ask for the owners name because the Express hotels are not part of HolIday Inn they are individually owned and when I ask for the owners name and address they gave me Hospital Corporation.  I called them and they said they did not own any property in Texas.  I guess the manager of these motels gets paid for every room they book.  Any way it was very bad.  My son died, we couldn't get to the motel and I get charged $487 dollars for rooms we couldn't use.  I will never use the Holiday Inn Express again and I will tell my story forever.More</t>
   </si>
   <si>
-    <t>SafetyHarbor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r59613012-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -920,9 +1238,6 @@
     <t>Stayed here for one night on Business very well appointed , good size room and facilities . Competent friendly staff, and a good hot breakfast. Excellent Value.Only one minus. I don't think there is any insulation in the walls between rooms, I could hear the conversation, bathroom activities and new which channel their TV was on. Plenty of parking, good access to the freeway to DFW and shops next door.More</t>
   </si>
   <si>
-    <t>digger2007</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r55212858-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
   </si>
   <si>
@@ -942,9 +1257,6 @@
   </si>
   <si>
     <t>We have stayed for three nights at HI Cedar Hill and are due to leave tomorrow for our next location, San Antonio. The hotel is brand new so as you would expect it's spotless. The staff are very helpful and the rooms are very nice. We've stayed in a room at the front of the hotel and could hear some trafic noise from the road. When we checked in the receptionist told us about the noise and offered to change our room if it became a problem. The suites are not the biggest we've stayed in but are adequate and comfortable. There is a fridge, microwave, coffee machine and hairdryer. There is a small indoor heated pool and hot tub which is open till 23hrs. There's also a small shop that sells drinks, snacks and ice cream.There are plenty of shops and restaurants within a five minute drive. The hotel was only meant as a base for us, i would imagine that it would suit business people rather than holiday makers, we drove into Dallas twice and it only took 25 minutes.More</t>
-  </si>
-  <si>
-    <t>chairtay</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55597-d1382867-r50282531-Holiday_Inn_Express_Hotel_Suites_Cedar_Hill-Cedar_Hill_Texas.html</t>
@@ -1470,47 +1782,43 @@
       <c r="A2" t="n">
         <v>59666</v>
       </c>
-      <c r="B2" t="n">
-        <v>58154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1521,203 +1829,175 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59666</v>
       </c>
-      <c r="B3" t="n">
-        <v>15609</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59666</v>
       </c>
-      <c r="B4" t="n">
-        <v>155320</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59666</v>
       </c>
-      <c r="B5" t="n">
-        <v>155321</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1729,60 +2009,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59666</v>
       </c>
-      <c r="B6" t="n">
-        <v>155322</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1794,57 +2070,57 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59666</v>
       </c>
-      <c r="B7" t="n">
-        <v>155323</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -1855,60 +2131,56 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="X7" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59666</v>
       </c>
-      <c r="B8" t="n">
-        <v>74754</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1920,406 +2192,370 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59666</v>
       </c>
-      <c r="B9" t="n">
-        <v>155324</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59666</v>
       </c>
-      <c r="B10" t="n">
-        <v>155325</v>
-      </c>
-      <c r="C10" t="s">
-        <v>128</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59666</v>
       </c>
-      <c r="B11" t="n">
-        <v>113425</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59666</v>
       </c>
-      <c r="B12" t="n">
-        <v>155326</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="Y12" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59666</v>
       </c>
-      <c r="B13" t="n">
-        <v>155327</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59666</v>
       </c>
-      <c r="B14" t="n">
-        <v>155328</v>
-      </c>
-      <c r="C14" t="s">
-        <v>163</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>169</v>
-      </c>
-      <c r="O14" t="s">
-        <v>76</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -2330,595 +2566,513 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="X14" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59666</v>
       </c>
-      <c r="B15" t="n">
-        <v>116868</v>
-      </c>
-      <c r="C15" t="s">
-        <v>173</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="X15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59666</v>
       </c>
-      <c r="B16" t="n">
-        <v>20839</v>
-      </c>
-      <c r="C16" t="s">
-        <v>183</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59666</v>
       </c>
-      <c r="B17" t="n">
-        <v>95382</v>
-      </c>
-      <c r="C17" t="s">
-        <v>193</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="X17" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59666</v>
       </c>
-      <c r="B18" t="n">
-        <v>82333</v>
-      </c>
-      <c r="C18" t="s">
-        <v>201</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59666</v>
       </c>
-      <c r="B19" t="n">
-        <v>155329</v>
-      </c>
-      <c r="C19" t="s">
-        <v>209</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>215</v>
-      </c>
-      <c r="O19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59666</v>
       </c>
-      <c r="B20" t="n">
-        <v>19183</v>
-      </c>
-      <c r="C20" t="s">
-        <v>219</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59666</v>
       </c>
-      <c r="B21" t="n">
-        <v>70965</v>
-      </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s">
+        <v>211</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
         <v>3</v>
       </c>
-      <c r="N21" t="s">
-        <v>233</v>
-      </c>
-      <c r="O21" t="s">
-        <v>76</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="X21" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59666</v>
       </c>
-      <c r="B22" t="n">
-        <v>155330</v>
-      </c>
-      <c r="C22" t="s">
-        <v>237</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="N22" t="s">
+        <v>220</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="X22" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
@@ -2931,50 +3085,44 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
       <c r="I23" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" t="n">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
         <v>4</v>
       </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -2983,134 +3131,122 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="X23" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59666</v>
       </c>
-      <c r="B24" t="n">
-        <v>155331</v>
-      </c>
-      <c r="C24" t="s">
-        <v>251</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
         <v>5</v>
       </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
         <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="X24" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="Y24" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59666</v>
       </c>
-      <c r="B25" t="n">
-        <v>155310</v>
-      </c>
-      <c r="C25" t="s">
-        <v>260</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>266</v>
-      </c>
-      <c r="O25" t="s">
-        <v>76</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
         <v>5</v>
@@ -3129,84 +3265,74 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59666</v>
       </c>
-      <c r="B26" t="n">
-        <v>155332</v>
-      </c>
-      <c r="C26" t="s">
-        <v>268</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
       <c r="I26" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="X26" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="Y26" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
@@ -3219,184 +3345,176 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
       <c r="I27" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>259</v>
+      </c>
+      <c r="O27" t="s">
+        <v>94</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="X27" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="Y27" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59666</v>
       </c>
-      <c r="B28" t="n">
-        <v>155333</v>
-      </c>
-      <c r="C28" t="s">
-        <v>282</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="H28" t="s">
-        <v>48</v>
-      </c>
       <c r="I28" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="X28" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="Y28" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59666</v>
       </c>
-      <c r="B29" t="n">
-        <v>155334</v>
-      </c>
-      <c r="C29" t="s">
-        <v>290</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
       <c r="I29" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3409,72 +3527,68 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="X29" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="Y29" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59666</v>
       </c>
-      <c r="B30" t="n">
-        <v>92146</v>
-      </c>
-      <c r="C30" t="s">
-        <v>298</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
         <v>47</v>
       </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
       <c r="I30" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="K30" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
         <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3484,78 +3598,1255 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="X30" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="Y30" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59666</v>
       </c>
-      <c r="B31" t="n">
-        <v>155335</v>
-      </c>
-      <c r="C31" t="s">
-        <v>306</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
         <v>47</v>
       </c>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
       <c r="I31" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="J31" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="O31" t="s">
-        <v>76</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="X31" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="Y31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L32" t="s">
+        <v>297</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>298</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>267</v>
+      </c>
+      <c r="X32" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>301</v>
+      </c>
+      <c r="J33" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" t="s">
+        <v>303</v>
+      </c>
+      <c r="L33" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>305</v>
+      </c>
+      <c r="O33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>306</v>
+      </c>
+      <c r="X33" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+      <c r="J34" t="s">
+        <v>311</v>
+      </c>
+      <c r="K34" t="s">
+        <v>296</v>
+      </c>
+      <c r="L34" t="s">
+        <v>312</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>305</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
         <v>313</v>
+      </c>
+      <c r="X34" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L35" t="s">
+        <v>320</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>321</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>267</v>
+      </c>
+      <c r="X35" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>323</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>324</v>
+      </c>
+      <c r="J36" t="s">
+        <v>325</v>
+      </c>
+      <c r="K36" t="s">
+        <v>326</v>
+      </c>
+      <c r="L36" t="s">
+        <v>327</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>328</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>329</v>
+      </c>
+      <c r="X36" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>333</v>
+      </c>
+      <c r="J37" t="s">
+        <v>334</v>
+      </c>
+      <c r="K37" t="s">
+        <v>335</v>
+      </c>
+      <c r="L37" t="s">
+        <v>336</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>328</v>
+      </c>
+      <c r="O37" t="s">
+        <v>94</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>337</v>
+      </c>
+      <c r="X37" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>340</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>341</v>
+      </c>
+      <c r="J38" t="s">
+        <v>342</v>
+      </c>
+      <c r="K38" t="s">
+        <v>343</v>
+      </c>
+      <c r="L38" t="s">
+        <v>344</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>345</v>
+      </c>
+      <c r="O38" t="s">
+        <v>211</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>346</v>
+      </c>
+      <c r="X38" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>349</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>350</v>
+      </c>
+      <c r="J39" t="s">
+        <v>351</v>
+      </c>
+      <c r="K39" t="s">
+        <v>352</v>
+      </c>
+      <c r="L39" t="s">
+        <v>353</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>267</v>
+      </c>
+      <c r="X39" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" t="s">
+        <v>358</v>
+      </c>
+      <c r="L40" t="s">
+        <v>359</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>360</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>267</v>
+      </c>
+      <c r="X40" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>362</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>363</v>
+      </c>
+      <c r="J41" t="s">
+        <v>364</v>
+      </c>
+      <c r="K41" t="s">
+        <v>365</v>
+      </c>
+      <c r="L41" t="s">
+        <v>366</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>367</v>
+      </c>
+      <c r="X41" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>370</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>371</v>
+      </c>
+      <c r="J42" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" t="s">
+        <v>373</v>
+      </c>
+      <c r="L42" t="s">
+        <v>374</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>375</v>
+      </c>
+      <c r="O42" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>267</v>
+      </c>
+      <c r="X42" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>378</v>
+      </c>
+      <c r="J43" t="s">
+        <v>379</v>
+      </c>
+      <c r="K43" t="s">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s">
+        <v>381</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>382</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>267</v>
+      </c>
+      <c r="X43" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>384</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>385</v>
+      </c>
+      <c r="J44" t="s">
+        <v>386</v>
+      </c>
+      <c r="K44" t="s">
+        <v>387</v>
+      </c>
+      <c r="L44" t="s">
+        <v>388</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>267</v>
+      </c>
+      <c r="X44" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>390</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J45" t="s">
+        <v>392</v>
+      </c>
+      <c r="K45" t="s">
+        <v>393</v>
+      </c>
+      <c r="L45" t="s">
+        <v>394</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>395</v>
+      </c>
+      <c r="O45" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>267</v>
+      </c>
+      <c r="X45" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>397</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>398</v>
+      </c>
+      <c r="J46" t="s">
+        <v>399</v>
+      </c>
+      <c r="K46" t="s">
+        <v>400</v>
+      </c>
+      <c r="L46" t="s">
+        <v>401</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>402</v>
+      </c>
+      <c r="O46" t="s">
+        <v>94</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>267</v>
+      </c>
+      <c r="X46" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>404</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>405</v>
+      </c>
+      <c r="J47" t="s">
+        <v>406</v>
+      </c>
+      <c r="K47" t="s">
+        <v>407</v>
+      </c>
+      <c r="L47" t="s">
+        <v>408</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>409</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>267</v>
+      </c>
+      <c r="X47" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59666</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>411</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>412</v>
+      </c>
+      <c r="J48" t="s">
+        <v>413</v>
+      </c>
+      <c r="K48" t="s">
+        <v>414</v>
+      </c>
+      <c r="L48" t="s">
+        <v>415</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>416</v>
+      </c>
+      <c r="O48" t="s">
+        <v>94</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>267</v>
+      </c>
+      <c r="X48" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
